--- a/chart8/data/台灣各區各用途用水.xlsx
+++ b/chart8/data/台灣各區各用途用水.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="16155" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="16155" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="依照地區為基準" sheetId="1" r:id="rId1"/>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1120,12 +1120,6 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>19.88</v>
       </c>
@@ -1401,21 +1395,6 @@
       </c>
       <c r="B23" t="s">
         <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1505,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1732,12 +1711,6 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>19.88</v>
       </c>
@@ -2263,21 +2236,6 @@
       </c>
       <c r="B17" t="s">
         <v>3</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
       </c>
       <c r="H17">
         <v>3</v>
